--- a/excel/patrones.xlsx
+++ b/excel/patrones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LINGO64_18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minamura\Documents\Investigacion Operativa I\Proyecto\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95ABBC-1DC5-4A29-B5EA-31F1961FD83A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE04EC-12EB-428C-B56B-D93D85763264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
@@ -192,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -209,6 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,28 +496,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C3137-E72D-4F06-89B0-D54881E953AE}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="A21:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -551,11 +552,14 @@
         <v>330</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="12"/>
+    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -615,7 +619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8840</v>
       </c>
@@ -629,7 +633,7 @@
         <v>8380</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -637,7 +641,7 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
@@ -645,7 +649,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>16</v>
       </c>
@@ -659,18 +663,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/excel/patrones.xlsx
+++ b/excel/patrones.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minamura\Documents\Investigacion Operativa I\Proyecto\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CE04EC-12EB-428C-B56B-D93D85763264}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet sheetId="3" name="Hoja1" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="CnP">Hoja1!$A$23:$D$23</definedName>
@@ -23,12 +17,7 @@
     <definedName name="OP">Hoja1!$A$11:$D$13</definedName>
     <definedName name="P">Hoja1!$A$5:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -38,51 +27,66 @@
     <t>Patrones</t>
   </si>
   <si>
+    <t>1. Datos de entrada</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
     <t>DIE</t>
   </si>
   <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>DT1</t>
+  </si>
+  <si>
+    <t>2. Datos del patron</t>
+  </si>
+  <si>
     <t>OP</t>
   </si>
   <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
     <t>CP</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>3. Variable de cantidad de patrones de tipo j</t>
+  </si>
+  <si>
     <t>CnP</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>O1</t>
-  </si>
-  <si>
-    <t>O2</t>
-  </si>
-  <si>
-    <t>O3</t>
-  </si>
-  <si>
-    <t>O4</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>Cn1</t>
   </si>
   <si>
@@ -93,50 +97,35 @@
   </si>
   <si>
     <t>Cn4</t>
-  </si>
-  <si>
-    <t>DTE</t>
-  </si>
-  <si>
-    <t>DT1</t>
-  </si>
-  <si>
-    <t>1. Datos de entrada</t>
-  </si>
-  <si>
-    <t>2. Datos del patron</t>
-  </si>
-  <si>
-    <t>3. Variable de cantidad de patrones de tipo j</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -154,13 +143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,30 +181,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,192 +479,184 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{027C3137-E72D-4F06-89B0-D54881E953AE}">
-  <dimension ref="A1:E30"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>247</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>123</v>
+      </c>
+      <c r="B13" s="7">
+        <v>120</v>
+      </c>
+      <c r="C13" s="7">
+        <v>120</v>
+      </c>
+      <c r="D13" s="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>8840</v>
+      </c>
+      <c r="B17" s="7">
+        <v>8610</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8610</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>247</v>
-      </c>
-      <c r="E7" s="1">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>128</v>
-      </c>
-      <c r="B13" s="2">
-        <v>120</v>
-      </c>
-      <c r="C13" s="2">
-        <v>120</v>
-      </c>
-      <c r="D13" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>8840</v>
-      </c>
-      <c r="B17" s="2">
-        <v>8610</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8610</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8380</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>6</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="B23" s="11">
         <v>0</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>330</v>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -689,6 +666,6 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/excel/patrones.xlsx
+++ b/excel/patrones.xlsx
@@ -528,7 +528,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="C7" s="5">
         <v>247</v>
@@ -576,7 +576,7 @@
         <v>120</v>
       </c>
       <c r="D13" s="7">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">

--- a/excel/patrones.xlsx
+++ b/excel/patrones.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="690" yWindow="1950" windowWidth="15375" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet sheetId="3" name="Hoja1" state="visible" r:id="rId4"/>
@@ -484,10 +484,10 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="9.140625"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -531,7 +531,7 @@
         <v>1000000</v>
       </c>
       <c r="C7" s="5">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="E7" s="5">
         <v>1000</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B23" s="11">
         <v>0</v>
